--- a/gd/主界面/等待加载和断线重连.xlsx
+++ b/gd/主界面/等待加载和断线重连.xlsx
@@ -9,65 +9,66 @@
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
     <sheet name="等待加载和断线重连" sheetId="2" r:id="rId2"/>
-    <sheet name="设计备忘" sheetId="1" r:id="rId3"/>
+    <sheet name="任务拆分" sheetId="4" r:id="rId3"/>
+    <sheet name="设计备忘" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>客户端发生与服务端交互请求后，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>断网后，出现1图转转转，持续20s后，弹出图2提示，循环这个过程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>断网后，出现1图，持续30s后，弹出图2提示，循环这个过程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>断网后，先出现图1，10秒后消失，回到正常界面；玩家再次操作会再次出现图1,10s,第三次为5s，若还不行直接出现图2，尝试重连每次30s，3次后出现图5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CR、COC为主动检测，断线后约5s后，出现下图，一直保持，直到重新连接成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>提示转圈持续30s，之后出现提示，若仍为断网，则点击确认后，框会再出现，以此类推</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>断线出现图1，持续8s，然后出现图2，倒计时15s，不操作则倒计时结束之后返回登陆界面，若点击重试则跳回图1，若点击返回则返回登陆界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若玩家不断重新连接，一定次数后出现图2，不会再有倒计时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>窗口类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>采用UI通用逻辑的提示窗口</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示文案</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>多语言id</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>retry_tips</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -83,175 +84,175 @@
       </rPr>
       <t>duanxian</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>等待加载和断线重连</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.0.1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>等待加载和断线重连</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>规划等待加载和断线重连</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">svn://10.21.2.47/gd/主界面/等待加载和断线重连.xlsx
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>等待加载和断线重连逻辑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1）当客户端判定当前必须重新登陆时，弹出提示框：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>网络异常，请重新登陆。</t>
   </si>
   <si>
     <t>若该情况发生在副本结算之前，客户端等待数据期间，客户端保持在战斗结束状态（胜利一方播放胜利动作位置），直到客户端接收到服务端返回的数据，再进入结算。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若此时重新连接成功，则客户端恢复正常游戏，玩家在重连前的操作需要玩家再次操作客户端才会再次向服务器请求。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>比如在重连前玩家点击了分解按钮，重连后，分解操作没有完成，玩家需要重新操作。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>且重连时，客户端会同时发送最后一条业务请求。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>网络异常，请稍后再试。</t>
@@ -270,96 +271,169 @@
       </rPr>
       <t>yichang</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）若在socket第一次连接失败后（登陆界面），会弹出提示框：</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）当客户端判定当前需要重新连接时，弹出提示框：</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端表现——提示信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端表现——等待加载</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端需要等待数据时，出现转圈圈（美术给出），出现转圈圈图示后，客户端不响应玩家任何操作</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么区分要重新登录和重新连接，没太看出来</t>
+  </si>
+  <si>
+    <t>读取数据异常的时候如何判断重登还是重连</t>
+  </si>
+  <si>
+    <t>怎么返回，loading一下回去，还是相当于重开回去</t>
+  </si>
+  <si>
+    <t>转圈圈美术需求，30s规定是什么</t>
+  </si>
+  <si>
+    <t>登录有，帐号输入的界面，有公告界面，有选服界面，如果能返回选服界面是最好，问问程序能不能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个跟第一个界面有区分，感觉没必要，两个界面统一成一个，就都叫网络异常就够了</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况1里的两个条件是“且”的关系</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>见上面的逻辑图里的“发生情况”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>写错了，删了</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归测试问题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回登陆按钮，提示框关闭，返回登陆界面。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击重新连接按钮，提示框关闭，客户端开始重新连接。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定，提示框关闭，返回登陆界面，相当于重开回去。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，关闭二级。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）若在socket第一次连接失败后（登陆界面），会弹出提示框：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）当客户端判定当前需要重新连接时，弹出提示框：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击返回登陆按钮，返回登陆界面。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端表现——提示信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端表现——等待加载</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端需要等待数据时，出现转圈圈（美术给出），出现转圈圈图示后，客户端不响应玩家任何操作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么区分要重新登录和重新连接，没太看出来</t>
-  </si>
-  <si>
-    <t>读取数据异常的时候如何判断重登还是重连</t>
-  </si>
-  <si>
-    <t>怎么返回，loading一下回去，还是相当于重开回去</t>
-  </si>
-  <si>
-    <t>转圈圈美术需求，30s规定是什么</t>
-  </si>
-  <si>
-    <t>登录有，帐号输入的界面，有公告界面，有选服界面，如果能返回选服界面是最好，问问程序能不能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击重新连接按钮，客户端开始重新连接。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个跟第一个界面有区分，感觉没必要，两个界面统一成一个，就都叫网络异常就够了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>情况1里的两个条件是“且”的关系</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>见上面的逻辑图里的“发生情况”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击确定，返回登陆界面，相当于重开回去。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>写错了，删了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回登陆</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新连接</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>etry_login</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>retry_link</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归测试问题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方后回归（加了两个多语言id）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应工时（单位d）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络异常处理</t>
+  </si>
+  <si>
+    <t>回归任务拆分</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -519,8 +593,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +620,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -734,125 +827,140 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="31" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -873,6 +981,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF9999FF"/>
       <color rgb="FF0066FF"/>
       <color rgb="FFCCECFF"/>
     </mruColors>
@@ -2543,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2746,17 +2855,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -2771,11 +2880,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -2792,11 +2901,11 @@
       <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -2811,11 +2920,11 @@
         <v>25</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -2830,11 +2939,11 @@
         <v>26</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -2849,11 +2958,11 @@
         <v>27</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2868,11 +2977,11 @@
         <v>28</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -2887,11 +2996,11 @@
         <v>29</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -2999,13 +3108,13 @@
         <v>42451</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="47"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="20"/>
@@ -3021,12 +3130,18 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="19"/>
+      <c r="C24" s="19">
+        <v>42454</v>
+      </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -3039,30 +3154,21 @@
       <c r="S24" s="22"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="8"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
@@ -3070,8 +3176,59 @@
       <c r="S25" s="22"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="19"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B28" s="8"/>
+      <c r="C28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3085,7 +3242,7 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3094,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3105,29 +3262,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
@@ -3166,13 +3323,13 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="6"/>
     </row>
@@ -3208,7 +3365,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
@@ -3272,28 +3429,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="28" t="s">
-        <v>74</v>
+      <c r="C35" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -3324,9 +3481,24 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
+      <c r="H42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
+      <c r="I43" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B44" s="6"/>
@@ -3337,25 +3509,25 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="27" t="s">
-        <v>61</v>
+      <c r="C46" s="33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="28" t="s">
-        <v>70</v>
+      <c r="C47" s="33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B48" s="6"/>
     </row>
@@ -3395,7 +3567,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -3414,7 +3586,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B57" s="6"/>
       <c r="H57" s="2"/>
@@ -3456,8 +3628,8 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
-      <c r="C63" s="25" t="s">
-        <v>58</v>
+      <c r="C63" s="33" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -3465,20 +3637,20 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="C66" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:V1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A13 A15:A36 A38:A47 A49:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -3490,6 +3662,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="53">
+        <v>42454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="H2" s="55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="51">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A74"/>
   <sheetViews>
@@ -3543,7 +3766,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
